--- a/3_MSExcel/BigFive.xlsx
+++ b/3_MSExcel/BigFive.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Year</t>
   </si>
@@ -49,6 +50,15 @@
   </si>
   <si>
     <t>COUNT</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>PROFIT</t>
+  </si>
+  <si>
+    <t>Add Values from another sheet:</t>
   </si>
 </sst>
 </file>
@@ -406,19 +416,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -437,7 +448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -452,7 +463,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -466,8 +477,13 @@
         <f>AVERAGE(B2:B7)</f>
         <v>35000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -482,7 +498,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -496,8 +512,12 @@
         <f>MAX(B2:B7)</f>
         <v>60000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="5">
+        <f>SUM(B2:B7,Sheet2!B2:B4)</f>
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -510,6 +530,60 @@
       <c r="E7">
         <f>COUNT(B2:B7)</f>
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
